--- a/biology/Botanique/Hector_Léveillé/Hector_Léveillé.xlsx
+++ b/biology/Botanique/Hector_Léveillé/Hector_Léveillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hector_L%C3%A9veill%C3%A9</t>
+          <t>Hector_Léveillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustin Abel Hector Léveillé, né le 13 mars 1864 au Mans et mort le 25 novembre 1918. est un botaniste et un prélat français, membre des Missions étrangères de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hector_L%C3%A9veill%C3%A9</t>
+          <t>Hector_Léveillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de médecine et au séminaire des missions étrangères, Hector Léveillé est ordonné prêtre le 29 septembre 1887 et part le 16 novembre de la même année pour l’Inde où il est nommé professeur d’Histoire naturelle au collège de Pondichéry.
 En 1891, il doit rentrer en France pour des raisons de santé, s’établissant au Mans, sa ville d'origine. Il fonde la revue « Le Monde des Plantes » et en reste le directeur jusqu'à sa mort. En 1892, il y fonde une société savante — l’Académie internationale de géographie botanique — dont il devient le secrétaire perpétuel et directeur de sa revue Bulletin de l'académie internationale de botanique, renommée en 1900 Bulletin de géographie botanique.
 Il rencontre, vers 1900, le botaniste du Muséum national d'histoire naturelle Adrien Franchet qui l'incite à entreprendre l’étude des spécimens légués à l’Académie (près de 35 000) par des missionnaires se trouvant en Extrême-Orient comme les PP. Bodinier, Cavalerie, Faurie, Taquet, Monbeig, Thirion, Darris ou Mgr Séguin. En compagnie du professeur et également religieux, le RP Eugène Vaniot, il décrit près de 2 000 espèces nouvelles originaires de Chine ou de Corée dont près d’un millier ont été maintenues. L'étendue, la variété et l'exactitude des déterminations qu'il produit témoignent de sa connaissance encyclopédique et approfondie de la botanique.
-Il a été aussi membre de l'Accademia Pontificia dei Nuovi Lincei[1].
+Il a été aussi membre de l'Accademia Pontificia dei Nuovi Lincei.
 Son herbier, très riche, a été acquis par le botaniste écossais George Forrest, collecteur au Yunnan.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hector_L%C3%A9veill%C3%A9</t>
+          <t>Hector_Léveillé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outre un grand nombre d'articles dans le Monde des plantes, le Bulletin de l'académie internationale de botanique et le "Bulletin de géographie botanique", il est l'auteur des publications suivantes : 
 Voyage d'un botaniste aux Indes - Limoges : Ve H. Ducourtieux, 1892
 Les plantes curieuses et médicinales de l'Inde - Le Mans : Edm. Monnoyer, 1893
 Petite flore de la Mayenne : contenant l'analyse et la description sommaire des plantes vasculaires de la Mayenne - Laval : Goupil, Libraire, 1895
-Supplément à la flore de la Mayenne [1 et 2] - Le Mans : Ed. Monnoyer, 1897-[1899]
+Supplément à la flore de la Mayenne [1 et 2] - Le Mans : Ed. Monnoyer, 1897-
 Les Hybrides en général et les Épilobes hybrides de France - Le Mans : impr. de l'Institut de bibliographie, 1899 - Bulletin de l'Académie internationale de géographie botanique
 Monographie du genre Onothera - Le Mans : Imprim. de l'Institut de Bibliographie, 1902-13 (5 fascicules)
 avec Eugène Vaniot - Les Carex du Japon - Le Mans : Imprimerie de l'Institut de Bibliographie de Paris, 1902
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hector_L%C3%A9veill%C3%A9</t>
+          <t>Hector_Léveillé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un genre : Leveillea Vaniot, famille des Astéracées, lui a été dédié ainsi que les espèces suivantes :
 Adiantum leveillei Christ - famille des Adiantacées
